--- a/Plan de fertilizare.xlsx
+++ b/Plan de fertilizare.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2025-09-22 22:52:19</t>
+          <t>2025-09-23 00:24:57</t>
         </is>
       </c>
     </row>
@@ -573,19 +573,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C:\v3\1.pdf</t>
+          <t>C:\v5\1.pdf</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Observatie</t>
+          <t>An (din interfață)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Seturile goale indică faptul că parserul nu a putut extrage rânduri valide din PDF.</t>
+          <t>2022</t>
         </is>
       </c>
     </row>
